--- a/EXPORTER_PORTAL_EDITORIAL_WORKFLOW/input_data/script/gui_map.xlsx
+++ b/EXPORTER_PORTAL_EDITORIAL_WORKFLOW/input_data/script/gui_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91770F0B-2C19-4F6C-A780-0FB640B6731A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C535A785-8E70-4EA8-A822-E7706CB10AE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,9 +310,6 @@
     <t>//label[(contains(., 'Name')) or (contains(., 'Block Description')) and not (contains(., 'How To'))]/following-sibling::input</t>
   </si>
   <si>
-    <t>//input[(@value='Select Image') or (@value='Select Video') or (@value='Select Block')]</t>
-  </si>
-  <si>
     <t>LogOut</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>//iframe[(@id='entity_browser_iframe_hero_banner_entity_browser') or (@id='entity_browser_iframe_image_entity_browser') or (@id='entity_browser_iframe_video_entity_browser')]</t>
+  </si>
+  <si>
+    <t>//input[(@value='Select Image') or (@value='Select Video') or (@value='Select Block') or (@value='Select')]</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,13 +1015,13 @@
         <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1278,114 +1278,114 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
         <v>113</v>
-      </c>
-      <c r="B39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
         <v>119</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
